--- a/12121212121.xlsx
+++ b/12121212121.xlsx
@@ -354,15 +354,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G11"/>
+  <dimension ref="C6:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="11" spans="7:7">
+    <row r="6" spans="3:7">
+      <c r="C6">
+        <v>5454545454</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7">
       <c r="G11">
         <v>1212121</v>
       </c>

--- a/12121212121.xlsx
+++ b/12121212121.xlsx
@@ -354,25 +354,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C6:G11"/>
+  <dimension ref="C6:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:7">
+    <row r="6" spans="3:11">
       <c r="C6">
         <v>5454545454</v>
       </c>
     </row>
-    <row r="11" spans="3:7">
+    <row r="9" spans="3:11">
+      <c r="C9">
+        <v>5.4545465456546498E+42</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11">
       <c r="G11">
         <v>1212121</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11">
+      <c r="K14">
+        <v>152121</v>
       </c>
     </row>
   </sheetData>

--- a/12121212121.xlsx
+++ b/12121212121.xlsx
@@ -354,38 +354,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C6:K14"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="A4" sqref="A4:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="6" spans="3:11">
-      <c r="C6">
-        <v>5454545454</v>
-      </c>
-    </row>
-    <row r="9" spans="3:11">
-      <c r="C9">
-        <v>5.4545465456546498E+42</v>
-      </c>
-    </row>
-    <row r="11" spans="3:11">
-      <c r="G11">
-        <v>1212121</v>
-      </c>
-    </row>
-    <row r="14" spans="3:11">
-      <c r="K14">
-        <v>152121</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
